--- a/Inventory_comparator/inventory_files/Delta.xlsx
+++ b/Inventory_comparator/inventory_files/Delta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VirtualUnity\Documents\Inventory_comparator\inventory_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VirtualUnity\Documents\GitHub\excel_tools\Inventory_comparator\inventory_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,18 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
-    <t>Part number</t>
-  </si>
-  <si>
-    <t>Quantities</t>
-  </si>
-  <si>
-    <t>Units of measurement</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>132d5f</t>
   </si>
   <si>
@@ -72,6 +60,18 @@
   </si>
   <si>
     <t>5sdf5d6f</t>
+  </si>
+  <si>
+    <t>part number</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>value mxn</t>
   </si>
 </sst>
 </file>
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -119,6 +119,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +405,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,28 +415,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>2.54</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4">
         <v>0.15</v>
@@ -442,13 +444,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4">
         <v>0.2</v>
@@ -456,13 +458,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>99</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4">
         <v>0.32</v>
@@ -470,13 +472,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4">
         <v>0.8</v>
@@ -484,13 +486,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>500</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4">
         <v>0.42</v>
@@ -498,27 +500,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>1200</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
         <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>100000</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4">
         <v>0.98</v>
@@ -526,13 +528,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4">
         <v>1.2</v>
@@ -540,13 +542,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
         <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4">
         <v>0.8</v>
